--- a/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
+++ b/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="Title">"$#REF!.$C$14"</definedName>
     <definedName name="Version">"$#REF!.$N$16"</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Quality Management System</t>
   </si>
@@ -124,9 +124,6 @@
     <t>PM</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>Create document</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Unit Test</t>
   </si>
   <si>
-    <t>Component Test</t>
-  </si>
-  <si>
     <t>Integration Test</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>Untested</t>
   </si>
   <si>
-    <t>Bug</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -196,18 +187,6 @@
     <t>% Tests Fail</t>
   </si>
   <si>
-    <t xml:space="preserve">3 -4 </t>
-  </si>
-  <si>
-    <t>2 -3</t>
-  </si>
-  <si>
-    <t>4 -6</t>
-  </si>
-  <si>
-    <t>240 - 340</t>
-  </si>
-  <si>
     <t>#Defects Planned</t>
   </si>
   <si>
@@ -226,28 +205,55 @@
     <t>Round 3</t>
   </si>
   <si>
-    <t>10TC/KLOC</t>
-  </si>
-  <si>
-    <t>8TC/KLOC</t>
-  </si>
-  <si>
-    <t>15TC/KLOC</t>
-  </si>
-  <si>
-    <t>FAP_Test Report</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>ThuyLMSE02881</t>
-  </si>
-  <si>
-    <t>DucHNSE02882</t>
-  </si>
-  <si>
-    <t>HaiDTSE02856</t>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>DDL_Test Report</t>
+  </si>
+  <si>
+    <t>Cao Thị Phương Mai</t>
+  </si>
+  <si>
+    <t>Lưu Ngọc Mạnh</t>
+  </si>
+  <si>
+    <t>Vũ Công Chính</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>40TC/KLOC</t>
+  </si>
+  <si>
+    <t>30TC/KLOC</t>
+  </si>
+  <si>
+    <t>20TC/KLOC</t>
+  </si>
+  <si>
+    <t>Acceptance Test</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>3 -4 defects/KLOC</t>
+  </si>
+  <si>
+    <t>2 -3 defects/KLOC</t>
+  </si>
+  <si>
+    <t>4 -6 defects/KLOC</t>
+  </si>
+  <si>
+    <t>1-2 defects/KLOC</t>
+  </si>
+  <si>
+    <t>10-15 defects/KLOC</t>
+  </si>
+  <si>
+    <t>90TC/KLOC</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -751,47 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
@@ -888,6 +853,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -895,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,9 +981,6 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,9 +1012,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,20 +1027,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1082,25 +1040,40 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,7 +1085,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,10 +1094,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1133,13 +1106,13 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,8 +1491,8 @@
   </sheetPr>
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1533,26 +1506,26 @@
   <sheetData>
     <row r="1" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8"/>
-      <c r="C1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="C1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -1573,55 +1546,55 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="89">
-        <v>42216</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="C7" s="88">
+        <v>42259</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="C9" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>18</v>
@@ -1631,7 +1604,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -1641,20 +1614,20 @@
         <v>7</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
@@ -1671,17 +1644,17 @@
       </c>
     </row>
     <row r="16" spans="2:6" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="79">
-        <v>42215</v>
+      <c r="B16" s="72">
+        <v>42259</v>
       </c>
       <c r="C16" s="35">
         <v>1</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1699,8 +1672,8 @@
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="7"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -1727,8 +1700,8 @@
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1755,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N31"/>
+  <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1766,7 +1739,7 @@
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
@@ -1776,35 +1749,35 @@
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="2:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D4" s="36"/>
     </row>
     <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:14" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>50</v>
+      <c r="D7" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>43</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>15</v>
@@ -1812,134 +1785,128 @@
       <c r="H7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>42</v>
+      <c r="I7" s="49" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="56">
-        <v>144</v>
-      </c>
-      <c r="F8" s="56">
-        <v>6</v>
-      </c>
+      <c r="B8" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="37">
         <v>1</v>
       </c>
       <c r="H8" s="41">
         <v>1</v>
       </c>
-      <c r="I8" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="72" t="s">
+      <c r="I8" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="56">
+        <v>300</v>
+      </c>
+      <c r="F9" s="56">
+        <v>8</v>
+      </c>
+      <c r="G9" s="40">
+        <v>1</v>
+      </c>
+      <c r="H9" s="42">
+        <v>1</v>
+      </c>
+      <c r="I9" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="57">
-        <v>145</v>
-      </c>
-      <c r="F9" s="57">
-        <v>0</v>
-      </c>
-      <c r="G9" s="37">
+      <c r="C10" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="57">
+        <v>812</v>
+      </c>
+      <c r="F10" s="57">
+        <v>13</v>
+      </c>
+      <c r="G10" s="78">
         <v>1</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H10" s="78">
         <v>1</v>
       </c>
-      <c r="I9" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="72" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="57">
-        <v>184</v>
-      </c>
-      <c r="F10" s="57">
-        <v>3</v>
-      </c>
-      <c r="G10" s="37">
+      <c r="I10" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="57">
+        <v>6</v>
+      </c>
+      <c r="G11" s="78">
         <v>1</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H11" s="78">
         <v>1</v>
       </c>
-      <c r="I10" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="58">
-        <v>341</v>
-      </c>
-      <c r="F11" s="58">
-        <v>5</v>
-      </c>
-      <c r="G11" s="40">
-        <v>1</v>
-      </c>
-      <c r="H11" s="42">
-        <v>1</v>
-      </c>
-      <c r="I11" s="52">
+      <c r="I11" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="46">
-        <v>1400</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="46">
-        <v>669</v>
-      </c>
-      <c r="F12" s="46">
-        <v>14</v>
+      <c r="B12" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45">
+        <v>27</v>
       </c>
       <c r="G12" s="44">
         <v>1</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="44">
         <v>1</v>
       </c>
       <c r="I12" s="44">
@@ -1947,383 +1914,324 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="90" t="s">
+      <c r="B15" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="91"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="93"/>
+      <c r="C16" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="90" t="s">
+      <c r="D16" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="92"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="94"/>
-      <c r="C16" s="60" t="s">
+      <c r="E16" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="F16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57">
+        <v>0</v>
+      </c>
+      <c r="M17" s="57">
+        <v>0</v>
+      </c>
+      <c r="N17" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="57">
+        <v>289</v>
+      </c>
+      <c r="D18" s="57">
+        <v>2</v>
+      </c>
+      <c r="E18" s="57">
+        <v>0</v>
+      </c>
+      <c r="F18" s="57">
+        <v>0</v>
+      </c>
+      <c r="G18" s="57">
+        <v>300</v>
+      </c>
+      <c r="H18" s="57">
+        <v>0</v>
+      </c>
+      <c r="I18" s="57">
+        <v>0</v>
+      </c>
+      <c r="J18" s="57">
+        <v>0</v>
+      </c>
+      <c r="K18" s="57">
+        <v>300</v>
+      </c>
+      <c r="L18" s="57">
+        <v>0</v>
+      </c>
+      <c r="M18" s="57">
+        <v>0</v>
+      </c>
+      <c r="N18" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="57">
+        <v>692</v>
+      </c>
+      <c r="D19" s="57">
+        <v>64</v>
+      </c>
+      <c r="E19" s="57">
+        <v>18</v>
+      </c>
+      <c r="F19" s="57">
+        <v>38</v>
+      </c>
+      <c r="G19" s="57">
+        <v>714</v>
+      </c>
+      <c r="H19" s="57">
+        <v>60</v>
+      </c>
+      <c r="I19" s="57">
+        <v>0</v>
+      </c>
+      <c r="J19" s="57">
+        <v>38</v>
+      </c>
+      <c r="K19" s="57">
+        <v>812</v>
+      </c>
+      <c r="L19" s="57">
+        <v>0</v>
+      </c>
+      <c r="M19" s="57">
+        <v>0</v>
+      </c>
+      <c r="N19" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="C20" s="45">
+        <f>SUM(C17:C19)</f>
+        <v>981</v>
+      </c>
+      <c r="D20" s="45">
+        <f>SUM(D17:D19)</f>
+        <v>66</v>
+      </c>
+      <c r="E20" s="45">
+        <v>18</v>
+      </c>
+      <c r="F20" s="45">
+        <f>SUM(F17:F19)</f>
         <v>38</v>
       </c>
-      <c r="F16" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="60" t="s">
+      <c r="G20" s="45">
+        <f>SUM(G17:G19)</f>
+        <v>1014</v>
+      </c>
+      <c r="H20" s="45">
+        <f>SUM(H17:H19)</f>
+        <v>60</v>
+      </c>
+      <c r="I20" s="45">
+        <v>0</v>
+      </c>
+      <c r="J20" s="45">
+        <f>SUM(J17:J19)</f>
+        <v>38</v>
+      </c>
+      <c r="K20" s="45">
+        <v>1112</v>
+      </c>
+      <c r="L20" s="57">
+        <v>0</v>
+      </c>
+      <c r="M20" s="57">
+        <v>0</v>
+      </c>
+      <c r="N20" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B23" s="71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="67">
+        <v>0</v>
+      </c>
+      <c r="D26" s="68">
+        <v>0</v>
+      </c>
+      <c r="E26" s="68">
+        <v>0</v>
+      </c>
+      <c r="F26" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="69">
+        <v>4</v>
+      </c>
+      <c r="D27" s="68">
+        <v>0</v>
+      </c>
+      <c r="E27" s="68">
+        <v>0</v>
+      </c>
+      <c r="F27" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="47">
+        <v>24</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="68">
+        <v>0</v>
+      </c>
+      <c r="F28" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="48">
+        <v>38</v>
+      </c>
+      <c r="D29" s="40">
+        <v>1</v>
+      </c>
+      <c r="E29" s="68">
+        <v>0</v>
+      </c>
+      <c r="F29" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="60" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="59">
-        <v>144</v>
-      </c>
-      <c r="D17" s="59">
-        <v>0</v>
-      </c>
-      <c r="E17" s="59">
-        <v>0</v>
-      </c>
-      <c r="F17" s="59">
-        <v>0</v>
-      </c>
-      <c r="G17" s="59">
-        <v>144</v>
-      </c>
-      <c r="H17" s="59">
-        <v>0</v>
-      </c>
-      <c r="I17" s="59">
-        <v>0</v>
-      </c>
-      <c r="J17" s="59">
-        <v>0</v>
-      </c>
-      <c r="K17" s="59">
-        <v>144</v>
-      </c>
-      <c r="L17" s="59">
-        <v>0</v>
-      </c>
-      <c r="M17" s="59">
-        <v>0</v>
-      </c>
-      <c r="N17" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="59">
-        <v>145</v>
-      </c>
-      <c r="D18" s="59">
-        <v>0</v>
-      </c>
-      <c r="E18" s="59">
-        <v>0</v>
-      </c>
-      <c r="F18" s="59">
-        <v>0</v>
-      </c>
-      <c r="G18" s="59">
-        <v>145</v>
-      </c>
-      <c r="H18" s="59">
-        <v>0</v>
-      </c>
-      <c r="I18" s="59">
-        <v>0</v>
-      </c>
-      <c r="J18" s="59">
-        <v>0</v>
-      </c>
-      <c r="K18" s="59">
-        <v>145</v>
-      </c>
-      <c r="L18" s="59">
-        <v>0</v>
-      </c>
-      <c r="M18" s="59">
-        <v>0</v>
-      </c>
-      <c r="N18" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="59">
-        <v>149</v>
-      </c>
-      <c r="D19" s="59">
-        <v>0</v>
-      </c>
-      <c r="E19" s="59">
-        <v>45</v>
-      </c>
-      <c r="F19" s="59">
-        <v>6</v>
-      </c>
-      <c r="G19" s="59">
-        <v>152</v>
-      </c>
-      <c r="H19" s="59">
-        <v>0</v>
-      </c>
-      <c r="I19" s="59">
-        <v>45</v>
-      </c>
-      <c r="J19" s="59">
-        <v>3</v>
-      </c>
-      <c r="K19" s="59">
-        <v>200</v>
-      </c>
-      <c r="L19" s="59">
-        <v>0</v>
-      </c>
-      <c r="M19" s="59">
-        <v>0</v>
-      </c>
-      <c r="N19" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="59">
-        <v>166</v>
-      </c>
-      <c r="D20" s="59">
-        <v>21</v>
-      </c>
-      <c r="E20" s="59">
-        <v>155</v>
-      </c>
-      <c r="F20" s="59">
-        <v>35</v>
-      </c>
-      <c r="G20" s="59">
-        <v>266</v>
-      </c>
-      <c r="H20" s="59">
-        <v>21</v>
-      </c>
-      <c r="I20" s="59">
-        <v>55</v>
-      </c>
-      <c r="J20" s="59">
-        <v>35</v>
-      </c>
-      <c r="K20" s="59">
-        <v>377</v>
-      </c>
-      <c r="L20" s="59">
-        <v>0</v>
-      </c>
-      <c r="M20" s="59">
-        <v>0</v>
-      </c>
-      <c r="N20" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="46">
-        <f>SUM(C17:C20)</f>
-        <v>604</v>
-      </c>
-      <c r="D21" s="46">
-        <f>SUM(D17:D20)</f>
-        <v>21</v>
-      </c>
-      <c r="E21" s="46">
-        <v>200</v>
-      </c>
-      <c r="F21" s="46">
-        <f>SUM(F17:F20)</f>
-        <v>41</v>
-      </c>
-      <c r="G21" s="46">
-        <f>SUM(G17:G20)</f>
-        <v>707</v>
-      </c>
-      <c r="H21" s="46">
-        <f>SUM(H17:H20)</f>
-        <v>21</v>
-      </c>
-      <c r="I21" s="46">
-        <v>100</v>
-      </c>
-      <c r="J21" s="46">
-        <f>SUM(J17:J20)</f>
-        <v>38</v>
-      </c>
-      <c r="K21" s="46">
-        <v>866</v>
-      </c>
-      <c r="L21" s="59">
-        <v>0</v>
-      </c>
-      <c r="M21" s="59">
-        <v>0</v>
-      </c>
-      <c r="N21" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="B24" s="78" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="34" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="74">
-        <v>0</v>
-      </c>
-      <c r="D27" s="75">
-        <v>0</v>
-      </c>
-      <c r="E27" s="75">
-        <v>0</v>
-      </c>
-      <c r="F27" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="76">
-        <v>0</v>
-      </c>
-      <c r="D28" s="75">
-        <v>0</v>
-      </c>
-      <c r="E28" s="75">
-        <v>0</v>
-      </c>
-      <c r="F28" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="48">
-        <v>11</v>
-      </c>
-      <c r="D29" s="37">
+      <c r="C30" s="45">
+        <v>66</v>
+      </c>
+      <c r="D30" s="44">
         <v>1</v>
       </c>
-      <c r="E29" s="75">
-        <v>0</v>
-      </c>
-      <c r="F29" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="49">
-        <v>45</v>
-      </c>
-      <c r="D30" s="40">
-        <v>1</v>
-      </c>
-      <c r="E30" s="75">
-        <v>0</v>
-      </c>
-      <c r="F30" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="46">
-        <v>56</v>
-      </c>
-      <c r="D31" s="44">
-        <v>1</v>
-      </c>
-      <c r="E31" s="77">
-        <v>0</v>
-      </c>
-      <c r="F31" s="77">
+      <c r="E30" s="70">
+        <v>0</v>
+      </c>
+      <c r="F30" s="70">
         <v>0</v>
       </c>
     </row>

--- a/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
+++ b/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Quality Management System</t>
   </si>
@@ -254,6 +254,18 @@
   </si>
   <si>
     <t>90TC/KLOC</t>
+  </si>
+  <si>
+    <t>1 defects/KLOC</t>
+  </si>
+  <si>
+    <t>9 defects/KLOC</t>
+  </si>
+  <si>
+    <t>2 defects/KLOC</t>
+  </si>
+  <si>
+    <t>12 defects/KLOC</t>
   </si>
 </sst>
 </file>
@@ -1073,6 +1085,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1082,25 +1109,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1478,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1491,8 +1503,8 @@
   </sheetPr>
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1506,19 +1518,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8"/>
-      <c r="C1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="C1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1546,51 +1558,51 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="82">
         <v>42259</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1604,7 +1616,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -1622,12 +1634,12 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
@@ -1672,8 +1684,8 @@
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="7"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -1700,22 +1712,22 @@
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.62986111111111109" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1730,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1741,7 +1753,7 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1824,8 +1836,8 @@
       <c r="E9" s="56">
         <v>300</v>
       </c>
-      <c r="F9" s="56">
-        <v>8</v>
+      <c r="F9" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="G9" s="40">
         <v>1</v>
@@ -1850,8 +1862,8 @@
       <c r="E10" s="57">
         <v>812</v>
       </c>
-      <c r="F10" s="57">
-        <v>13</v>
+      <c r="F10" s="57" t="s">
+        <v>64</v>
       </c>
       <c r="G10" s="78">
         <v>1</v>
@@ -1876,8 +1888,8 @@
       <c r="E11" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="57">
-        <v>6</v>
+      <c r="F11" s="57" t="s">
+        <v>65</v>
       </c>
       <c r="G11" s="78">
         <v>1</v>
@@ -1900,8 +1912,8 @@
         <v>61</v>
       </c>
       <c r="E12" s="45"/>
-      <c r="F12" s="45">
-        <v>27</v>
+      <c r="F12" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="G12" s="44">
         <v>1</v>

--- a/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
+++ b/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\0. Capsule Project\Capstone Project\2015FALLJS01\WIP\Documents\Report 5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -23,7 +28,7 @@
     <definedName name="Title">"$#REF!.$C$14"</definedName>
     <definedName name="Version">"$#REF!.$N$16"</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -33,7 +38,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1085,6 +1090,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,24 +1118,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,7 +1495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1503,7 +1508,7 @@
   </sheetPr>
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1518,19 +1523,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8"/>
-      <c r="C1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="C1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1558,51 +1563,51 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="88">
         <v>42259</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
     </row>
     <row r="11" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1616,7 +1621,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="88"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -1634,12 +1639,12 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
@@ -1684,8 +1689,8 @@
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="7"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -1712,22 +1717,22 @@
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.62986111111111109" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1742,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1991,15 +1996,33 @@
       <c r="B17" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
+      <c r="C17" s="57">
+        <v>356</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0</v>
+      </c>
+      <c r="G17" s="57">
+        <v>356</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0</v>
+      </c>
+      <c r="I17" s="57">
+        <v>0</v>
+      </c>
+      <c r="J17" s="57">
+        <v>0</v>
+      </c>
+      <c r="K17" s="57">
+        <v>356</v>
+      </c>
       <c r="L17" s="57">
         <v>0</v>
       </c>
@@ -2098,7 +2121,7 @@
       </c>
       <c r="C20" s="45">
         <f>SUM(C17:C19)</f>
-        <v>981</v>
+        <v>1337</v>
       </c>
       <c r="D20" s="45">
         <f>SUM(D17:D19)</f>
@@ -2113,7 +2136,7 @@
       </c>
       <c r="G20" s="45">
         <f>SUM(G17:G19)</f>
-        <v>1014</v>
+        <v>1370</v>
       </c>
       <c r="H20" s="45">
         <f>SUM(H17:H19)</f>

--- a/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
+++ b/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
@@ -1747,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2150,15 +2150,19 @@
         <v>38</v>
       </c>
       <c r="K20" s="45">
-        <v>1112</v>
+        <f>SUM(K17:K19)</f>
+        <v>1468</v>
       </c>
       <c r="L20" s="57">
+        <f>SUM(L17:L19)</f>
         <v>0</v>
       </c>
       <c r="M20" s="57">
+        <f>SUM(M17:M19)</f>
         <v>0</v>
       </c>
       <c r="N20" s="57">
+        <f>SUM(N17:N19)</f>
         <v>0</v>
       </c>
     </row>

--- a/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
+++ b/WIP/Documents/Report 5/DDL_Test Report_v1.1_EN.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\0. Capsule Project\Capstone Project\2015FALLJS01\WIP\Documents\Report 5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
@@ -28,7 +23,7 @@
     <definedName name="Title">"$#REF!.$C$14"</definedName>
     <definedName name="Version">"$#REF!.$N$16"</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -38,7 +33,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1090,6 +1085,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,25 +1109,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1495,7 +1490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1523,19 +1518,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8"/>
-      <c r="C1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="C1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
@@ -1563,51 +1558,51 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="82">
         <v>42259</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="2:6" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1621,7 +1616,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="84"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="E12" s="20"/>
@@ -1639,12 +1634,12 @@
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
@@ -1689,8 +1684,8 @@
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="7"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -1717,22 +1712,22 @@
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.62986111111111109" top="0.98402777777777783" bottom="0.98402777777777772" header="0.51180555555555562" footer="0.5"/>
   <pageSetup firstPageNumber="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1748,7 +1743,7 @@
   <dimension ref="B2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2079,7 +2074,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="57">
-        <v>692</v>
+        <v>748</v>
       </c>
       <c r="D19" s="57">
         <v>64</v>
@@ -2091,7 +2086,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="57">
-        <v>714</v>
+        <v>770</v>
       </c>
       <c r="H19" s="57">
         <v>60</v>
@@ -2103,7 +2098,7 @@
         <v>38</v>
       </c>
       <c r="K19" s="57">
-        <v>812</v>
+        <v>868</v>
       </c>
       <c r="L19" s="57">
         <v>0</v>
@@ -2121,7 +2116,7 @@
       </c>
       <c r="C20" s="45">
         <f>SUM(C17:C19)</f>
-        <v>1337</v>
+        <v>1393</v>
       </c>
       <c r="D20" s="45">
         <f>SUM(D17:D19)</f>
@@ -2136,7 +2131,7 @@
       </c>
       <c r="G20" s="45">
         <f>SUM(G17:G19)</f>
-        <v>1370</v>
+        <v>1426</v>
       </c>
       <c r="H20" s="45">
         <f>SUM(H17:H19)</f>
@@ -2151,7 +2146,7 @@
       </c>
       <c r="K20" s="45">
         <f>SUM(K17:K19)</f>
-        <v>1468</v>
+        <v>1524</v>
       </c>
       <c r="L20" s="57">
         <f>SUM(L17:L19)</f>
